--- a/docs/mcode/shr-core-SurgicalBodyLocationRole-extension.xlsx
+++ b/docs/mcode/shr-core-SurgicalBodyLocationRole-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="86">
   <si>
     <t>Path</t>
   </si>
@@ -162,6 +162,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
@@ -230,7 +233,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/SurgicalBodyLocationRoleVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/SurgicalBodyLocationRoleVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -243,23 +246,33 @@
 </t>
   </si>
   <si>
-    <t>Code for the body location, optionally defining laterality or direction.</t>
-  </si>
-  <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
+    <t>Code for the body location, optionally pre-coordinating laterality or direction.</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -419,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -429,7 +442,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.16015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -452,7 +465,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.26953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -776,7 +789,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>38</v>
@@ -791,13 +804,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -836,17 +849,17 @@
         <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -866,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -888,11 +901,11 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -960,7 +973,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1057,7 +1070,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1080,13 +1093,13 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1137,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1154,7 +1167,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1177,13 +1190,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1192,7 +1205,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>36</v>
@@ -1234,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1251,7 +1264,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1274,13 +1287,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1307,11 +1320,11 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>36</v>
@@ -1329,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1349,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>36</v>
@@ -1371,11 +1384,11 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1446,7 +1459,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
@@ -1456,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>36</v>
@@ -1468,11 +1481,11 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1543,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>36</v>
@@ -1553,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>36</v>
@@ -1565,11 +1578,11 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1637,18 +1650,20 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1660,13 +1675,11 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" t="s" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1675,7 +1688,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>36</v>
@@ -1717,10 +1730,10 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>41</v>
@@ -1734,7 +1747,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1742,10 +1755,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1757,13 +1770,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1772,7 +1785,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>36</v>
@@ -1814,10 +1827,10 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>41</v>
@@ -1826,11 +1839,108 @@
         <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI14">
+  <autoFilter ref="A1:AI15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1840,7 +1950,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-SurgicalBodyLocationRole-extension.xlsx
+++ b/docs/mcode/shr-core-SurgicalBodyLocationRole-extension.xlsx
@@ -257,7 +257,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -274,7 +274,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -294,7 +294,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
